--- a/data/0. old data/0. raw/2016/companies/novo.xlsx
+++ b/data/0. old data/0. raw/2016/companies/novo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="20" windowWidth="32080" windowHeight="15960"/>
+    <workbookView xWindow="3700" yWindow="1840" windowWidth="32080" windowHeight="15960"/>
   </bookViews>
   <sheets>
     <sheet name="novonordisk" sheetId="1" r:id="rId1"/>
@@ -1222,9 +1222,6 @@
     <t>Neudorfstrasse 32</t>
   </si>
   <si>
-    <t>Service de Cardiologie, Fondation GECOR, HUG</t>
-  </si>
-  <si>
     <t>Geneve</t>
   </si>
   <si>
@@ -1976,6 +1973,9 @@
   </si>
   <si>
     <t>novonordisk</t>
+  </si>
+  <si>
+    <t>Service de Cardiologie, Fondation GECOR</t>
   </si>
 </sst>
 </file>
@@ -2817,9 +2817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L189" sqref="L189"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
@@ -2905,19 +2905,19 @@
         <v>1000</v>
       </c>
       <c r="M2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -2937,19 +2937,19 @@
         <v>1185</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -2969,19 +2969,19 @@
         <v>969</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
@@ -3001,19 +3001,19 @@
         <v>931</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>27</v>
@@ -3033,19 +3033,19 @@
         <v>4327</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -3065,19 +3065,19 @@
         <v>1956</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>31</v>
@@ -3097,19 +3097,19 @@
         <v>1988</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>32</v>
@@ -3129,19 +3129,19 @@
         <v>1480</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>34</v>
@@ -3161,19 +3161,19 @@
         <v>1057</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>36</v>
@@ -3193,19 +3193,19 @@
         <v>1706</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>38</v>
@@ -3225,19 +3225,19 @@
         <v>355</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
@@ -3257,19 +3257,19 @@
         <v>1054</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>42</v>
@@ -3289,19 +3289,19 @@
         <v>642</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>44</v>
@@ -3319,19 +3319,19 @@
         <v>2000</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -3351,19 +3351,19 @@
         <v>1290</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>47</v>
@@ -3383,19 +3383,19 @@
         <v>1365</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
@@ -3415,19 +3415,19 @@
         <v>621</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>50</v>
@@ -3445,19 +3445,19 @@
         <v>2000</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>52</v>
@@ -3477,19 +3477,19 @@
         <v>1037</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
@@ -3511,19 +3511,19 @@
         <v>1686</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
@@ -3541,19 +3541,19 @@
         <v>160</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>56</v>
@@ -3573,19 +3573,19 @@
         <v>4960</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>58</v>
@@ -3605,19 +3605,19 @@
         <v>1436</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>60</v>
@@ -3635,19 +3635,19 @@
         <v>800</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>62</v>
@@ -3667,19 +3667,19 @@
         <v>1694</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>36</v>
@@ -3699,19 +3699,19 @@
         <v>589</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>64</v>
@@ -3731,19 +3731,19 @@
         <v>1450</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>66</v>
@@ -3763,19 +3763,19 @@
         <v>816</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>67</v>
@@ -3797,19 +3797,19 @@
         <v>1539</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>69</v>
@@ -3829,19 +3829,19 @@
         <v>550</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>71</v>
@@ -3861,19 +3861,19 @@
         <v>1988</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>73</v>
@@ -3891,19 +3891,19 @@
         <v>222</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>74</v>
@@ -3923,19 +3923,19 @@
         <v>1154</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>75</v>
@@ -3955,19 +3955,19 @@
         <v>1003</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>76</v>
@@ -3987,19 +3987,19 @@
         <v>2523</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>78</v>
@@ -4019,19 +4019,19 @@
         <v>837</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>25</v>
@@ -4051,19 +4051,19 @@
         <v>2833</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>80</v>
@@ -4083,19 +4083,19 @@
         <v>1138</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>81</v>
@@ -4113,19 +4113,19 @@
         <v>1000</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>82</v>
@@ -4145,19 +4145,19 @@
         <v>1079</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>76</v>
@@ -4175,19 +4175,19 @@
         <v>1500</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>84</v>
@@ -4205,19 +4205,19 @@
         <v>160</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>22</v>
@@ -4237,19 +4237,19 @@
         <v>1464</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>86</v>
@@ -4267,19 +4267,19 @@
         <v>481</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>88</v>
@@ -4299,19 +4299,19 @@
         <v>929</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>90</v>
@@ -4331,19 +4331,19 @@
         <v>2517</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>91</v>
@@ -4363,19 +4363,19 @@
         <v>1370</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>92</v>
@@ -4395,19 +4395,19 @@
         <v>456</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>36</v>
@@ -4427,19 +4427,19 @@
         <v>4882</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>93</v>
@@ -4459,19 +4459,19 @@
         <v>1570</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>94</v>
@@ -4489,19 +4489,19 @@
         <v>160</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>76</v>
@@ -4519,19 +4519,19 @@
         <v>6000</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>96</v>
@@ -4551,19 +4551,19 @@
         <v>1250</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>98</v>
@@ -4581,19 +4581,19 @@
         <v>1000</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>100</v>
@@ -4615,19 +4615,19 @@
         <v>3240</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>102</v>
@@ -4647,19 +4647,19 @@
         <v>1918</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>103</v>
@@ -4677,19 +4677,19 @@
         <v>3331.26</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>105</v>
@@ -4707,19 +4707,19 @@
         <v>585</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>106</v>
@@ -4739,19 +4739,19 @@
         <v>588</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>108</v>
@@ -4771,19 +4771,19 @@
         <v>2268</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>109</v>
@@ -4803,19 +4803,19 @@
         <v>1049</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>111</v>
@@ -4833,19 +4833,19 @@
         <v>2300</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>113</v>
@@ -4865,19 +4865,19 @@
         <v>980</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>58</v>
@@ -4897,19 +4897,19 @@
         <v>1150</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>115</v>
@@ -4931,19 +4931,19 @@
         <v>4279</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>116</v>
@@ -4963,19 +4963,19 @@
         <v>653</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>117</v>
@@ -4993,19 +4993,19 @@
         <v>160</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>82</v>
@@ -5025,19 +5025,19 @@
         <v>2436</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>118</v>
@@ -5057,19 +5057,19 @@
         <v>2525</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>119</v>
@@ -5089,19 +5089,19 @@
         <v>1389</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>120</v>
@@ -5121,19 +5121,19 @@
         <v>884</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>122</v>
@@ -5151,19 +5151,19 @@
         <v>1000</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>123</v>
@@ -5183,19 +5183,19 @@
         <v>1419</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>124</v>
@@ -5217,19 +5217,19 @@
         <v>1999.74</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>125</v>
@@ -5249,19 +5249,19 @@
         <v>1126</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>126</v>
@@ -5281,19 +5281,19 @@
         <v>1024</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>127</v>
@@ -5315,19 +5315,19 @@
         <v>3994</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>129</v>
@@ -5347,19 +5347,19 @@
         <v>2135</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>131</v>
@@ -5381,19 +5381,19 @@
         <v>1316</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>133</v>
@@ -5411,19 +5411,19 @@
         <v>160</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>134</v>
@@ -5441,19 +5441,19 @@
         <v>160</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>135</v>
@@ -5471,19 +5471,19 @@
         <v>189</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>137</v>
@@ -5503,19 +5503,19 @@
         <v>1875</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N84" s="3"/>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>139</v>
@@ -5533,19 +5533,19 @@
         <v>1600</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>140</v>
@@ -5563,19 +5563,19 @@
         <v>255</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>141</v>
@@ -5593,19 +5593,19 @@
         <v>1600</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>143</v>
@@ -5623,19 +5623,19 @@
         <v>800</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N88" s="3"/>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>144</v>
@@ -5657,19 +5657,19 @@
         <v>2365</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N89" s="3"/>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>126</v>
@@ -5691,19 +5691,19 @@
         <v>1777</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N90" s="3"/>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>146</v>
@@ -5721,19 +5721,19 @@
         <v>800</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N91" s="3"/>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>147</v>
@@ -5753,19 +5753,19 @@
         <v>2585.4</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N92" s="3"/>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>36</v>
@@ -5785,19 +5785,19 @@
         <v>2523</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N93" s="3"/>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>144</v>
@@ -5817,19 +5817,19 @@
         <v>4464</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N94" s="3"/>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>149</v>
@@ -5851,19 +5851,19 @@
         <v>5911</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N95" s="3"/>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>150</v>
@@ -5883,19 +5883,19 @@
         <v>691</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N96" s="3"/>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>151</v>
@@ -5915,19 +5915,19 @@
         <v>1474</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N97" s="3"/>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>152</v>
@@ -5945,19 +5945,19 @@
         <v>1600</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N98" s="3"/>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>153</v>
@@ -5977,19 +5977,19 @@
         <v>2271</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N99" s="3"/>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>154</v>
@@ -6009,19 +6009,19 @@
         <v>2258</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N100" s="3"/>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>155</v>
@@ -6039,19 +6039,19 @@
         <v>1000</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N101" s="3"/>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>156</v>
@@ -6073,19 +6073,19 @@
         <v>3212</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N102" s="3"/>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>158</v>
@@ -6105,19 +6105,19 @@
         <v>2288</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N103" s="3"/>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>160</v>
@@ -6135,19 +6135,19 @@
         <v>1600</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N104" s="3"/>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>96</v>
@@ -6169,19 +6169,19 @@
         <v>903</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N105" s="3"/>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>47</v>
@@ -6199,19 +6199,19 @@
         <v>504</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N106" s="3"/>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>162</v>
@@ -6229,19 +6229,19 @@
         <v>569</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N107" s="3"/>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>93</v>
@@ -6261,19 +6261,19 @@
         <v>1553</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N108" s="3"/>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>164</v>
@@ -6293,19 +6293,19 @@
         <v>1370</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N109" s="3"/>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>166</v>
@@ -6323,19 +6323,19 @@
         <v>436</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N110" s="3"/>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>167</v>
@@ -6355,19 +6355,19 @@
         <v>499</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>169</v>
@@ -6387,19 +6387,19 @@
         <v>1370</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N112" s="3"/>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>119</v>
@@ -6419,19 +6419,19 @@
         <v>6757</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N113" s="3"/>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>171</v>
@@ -6453,19 +6453,19 @@
         <v>857</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N114" s="3"/>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>172</v>
@@ -6483,19 +6483,19 @@
         <v>1600</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N115" s="3"/>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>173</v>
@@ -6515,19 +6515,19 @@
         <v>1455</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N116" s="3"/>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>174</v>
@@ -6549,19 +6549,19 @@
         <v>3918</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N117" s="3"/>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>176</v>
@@ -6581,19 +6581,19 @@
         <v>642</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N118" s="3"/>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>178</v>
@@ -6611,19 +6611,19 @@
         <v>160</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N119" s="3"/>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>180</v>
@@ -6641,19 +6641,19 @@
         <v>1000</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N120" s="3"/>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>182</v>
@@ -6671,19 +6671,19 @@
         <v>800</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N121" s="3"/>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>126</v>
@@ -6703,19 +6703,19 @@
         <v>1075</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N122" s="3"/>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>119</v>
@@ -6735,19 +6735,19 @@
         <v>1254</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N123" s="3"/>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>184</v>
@@ -6767,19 +6767,19 @@
         <v>5929</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N124" s="3"/>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>185</v>
@@ -6797,19 +6797,19 @@
         <v>1000</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N125" s="3"/>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>36</v>
@@ -6829,19 +6829,19 @@
         <v>3028</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N126" s="3"/>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>187</v>
@@ -6859,19 +6859,19 @@
         <v>500</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N127" s="3"/>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>188</v>
@@ -6891,19 +6891,19 @@
         <v>698</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N128" s="3"/>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>189</v>
@@ -6923,19 +6923,19 @@
         <v>960</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N129" s="3"/>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>190</v>
@@ -6959,19 +6959,19 @@
         <v>3595.2</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N130" s="3"/>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>144</v>
@@ -6991,19 +6991,19 @@
         <v>421</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N131" s="3"/>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>192</v>
@@ -7023,19 +7023,19 @@
         <v>614</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N132" s="3"/>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>194</v>
@@ -7055,19 +7055,19 @@
         <v>500</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N133" s="3"/>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>195</v>
@@ -7087,19 +7087,19 @@
         <v>614</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N134" s="3"/>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>76</v>
@@ -7121,19 +7121,19 @@
         <v>1733</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N135" s="3"/>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>76</v>
@@ -7153,19 +7153,19 @@
         <v>1450</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N136" s="3"/>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>147</v>
@@ -7183,19 +7183,19 @@
         <v>160</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N137" s="3"/>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>167</v>
@@ -7215,19 +7215,19 @@
         <v>316</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N138" s="3"/>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>76</v>
@@ -7247,19 +7247,19 @@
         <v>4792</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N139" s="3"/>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>196</v>
@@ -7279,19 +7279,19 @@
         <v>816</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N140" s="3"/>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>197</v>
@@ -7311,19 +7311,19 @@
         <v>642</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N141" s="3"/>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>199</v>
@@ -7343,19 +7343,19 @@
         <v>621</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N142" s="3"/>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>201</v>
@@ -7375,19 +7375,19 @@
         <v>4890</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N143" s="3"/>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>203</v>
@@ -7405,19 +7405,19 @@
         <v>450</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N144" s="3"/>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>204</v>
@@ -7437,19 +7437,19 @@
         <v>1660</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N145" s="3"/>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>205</v>
@@ -7469,19 +7469,19 @@
         <v>2938</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N146" s="3"/>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>206</v>
@@ -7501,19 +7501,19 @@
         <v>508</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N147" s="3"/>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>208</v>
@@ -7533,19 +7533,19 @@
         <v>1956</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N148" s="3"/>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>209</v>
@@ -7567,19 +7567,19 @@
         <v>2010</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N149" s="3"/>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>211</v>
@@ -7603,19 +7603,19 @@
         <v>7714</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N150" s="3"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>213</v>
@@ -7633,19 +7633,19 @@
         <v>160</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N151" s="3"/>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>215</v>
@@ -7665,19 +7665,19 @@
         <v>355</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N152" s="3"/>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>217</v>
@@ -7699,19 +7699,19 @@
         <v>6102</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N153" s="3"/>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>218</v>
@@ -7729,19 +7729,19 @@
         <v>160</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N154" s="3"/>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>167</v>
@@ -7761,19 +7761,19 @@
         <v>499</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N155" s="3"/>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>219</v>
@@ -7793,19 +7793,19 @@
         <v>532</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N156" s="3"/>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>220</v>
@@ -7823,19 +7823,19 @@
         <v>1000</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N157" s="3"/>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>222</v>
@@ -7853,19 +7853,19 @@
         <v>800</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N158" s="3"/>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>224</v>
@@ -7885,19 +7885,19 @@
         <v>969</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N159" s="3"/>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>225</v>
@@ -7917,19 +7917,19 @@
         <v>3212</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N160" s="3"/>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>226</v>
@@ -7951,19 +7951,19 @@
         <v>1549</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N161" s="3"/>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>228</v>
@@ -7983,19 +7983,19 @@
         <v>969</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N162" s="3"/>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>229</v>
@@ -8015,19 +8015,19 @@
         <v>2665</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N163" s="3"/>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>231</v>
@@ -8047,19 +8047,19 @@
         <v>731</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N164" s="3"/>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>232</v>
@@ -8081,19 +8081,19 @@
         <v>1512</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N165" s="3"/>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>76</v>
@@ -8113,19 +8113,19 @@
         <v>1226</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N166" s="3"/>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>233</v>
@@ -8145,19 +8145,19 @@
         <v>1864</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N167" s="3"/>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>235</v>
@@ -8175,19 +8175,19 @@
         <v>400</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N168" s="3"/>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>236</v>
@@ -8207,19 +8207,19 @@
         <v>2035</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N169" s="3"/>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>237</v>
@@ -8239,19 +8239,19 @@
         <v>1761</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N170" s="3"/>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>233</v>
@@ -8271,19 +8271,19 @@
         <v>1126</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N171" s="3"/>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>238</v>
@@ -8301,19 +8301,19 @@
         <v>800</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N172" s="3"/>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>239</v>
@@ -8333,19 +8333,19 @@
         <v>1615</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N173" s="3"/>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>73</v>
@@ -8363,19 +8363,19 @@
         <v>1500</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N174" s="3"/>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>240</v>
@@ -8393,19 +8393,19 @@
         <v>1434</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N175" s="3"/>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>241</v>
@@ -8425,19 +8425,19 @@
         <v>1522</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N176" s="3"/>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>36</v>
@@ -8455,19 +8455,19 @@
         <v>8000</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N177" s="3"/>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>117</v>
@@ -8485,19 +8485,19 @@
         <v>160</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N178" s="3"/>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>242</v>
@@ -8515,19 +8515,19 @@
         <v>160</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N179" s="3"/>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>244</v>
@@ -8545,19 +8545,19 @@
         <v>160</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N180" s="3"/>
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>245</v>
@@ -8577,19 +8577,19 @@
         <v>6049</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N181" s="3"/>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>20</v>
@@ -8607,19 +8607,19 @@
         <v>366</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N182" s="3"/>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>246</v>
@@ -8637,19 +8637,19 @@
         <v>1000</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N183" s="3"/>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>248</v>
@@ -8669,19 +8669,19 @@
         <v>621</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N184" s="3"/>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>80</v>
@@ -8699,19 +8699,19 @@
         <v>1000</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N185" s="3"/>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>250</v>
@@ -8731,19 +8731,19 @@
         <v>1370</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N186" s="3"/>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>251</v>
@@ -8761,19 +8761,19 @@
         <v>1600</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N187" s="3"/>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>253</v>
@@ -8795,19 +8795,19 @@
         <v>7527</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N188" s="3"/>
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>254</v>
@@ -8825,19 +8825,19 @@
         <v>1600</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N189" s="3"/>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>255</v>
@@ -8857,19 +8857,19 @@
         <v>1918</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N190" s="3"/>
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>58</v>
@@ -8889,19 +8889,19 @@
         <v>1150</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N191" s="3"/>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>256</v>
@@ -8923,19 +8923,19 @@
         <v>8640</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N192" s="3"/>
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>38</v>
@@ -8955,19 +8955,19 @@
         <v>570</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N193" s="3"/>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>90</v>
@@ -8987,19 +8987,19 @@
         <v>1885</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N194" s="3"/>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>144</v>
@@ -9021,19 +9021,19 @@
         <v>8309</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N195" s="3"/>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>126</v>
@@ -9053,19 +9053,19 @@
         <v>2220</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N196" s="3"/>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>144</v>
@@ -9083,19 +9083,19 @@
         <v>260</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N197" s="3"/>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>237</v>
@@ -9115,19 +9115,19 @@
         <v>1382</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N198" s="3"/>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>259</v>
@@ -9147,19 +9147,19 @@
         <v>1370</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N199" s="3"/>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>260</v>
@@ -9181,19 +9181,19 @@
         <v>1374</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N200" s="3"/>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>261</v>
@@ -9213,19 +9213,19 @@
         <v>1231</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N201" s="3"/>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>208</v>
@@ -9243,19 +9243,19 @@
         <v>1000</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N202" s="3"/>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>263</v>
@@ -9275,19 +9275,19 @@
         <v>621</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N203" s="3"/>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>58</v>
@@ -9307,19 +9307,19 @@
         <v>996</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N204" s="3"/>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>58</v>
@@ -9339,19 +9339,19 @@
         <v>1723</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N205" s="3"/>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>264</v>
@@ -9371,19 +9371,19 @@
         <v>1910</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N206" s="3"/>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>76</v>
@@ -9401,19 +9401,19 @@
         <v>616.5</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N207" s="3"/>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>76</v>
@@ -9433,19 +9433,19 @@
         <v>1467</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N208" s="3"/>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>265</v>
@@ -9465,19 +9465,19 @@
         <v>715</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N209" s="3"/>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>266</v>
@@ -9495,19 +9495,19 @@
         <v>800</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N210" s="3"/>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>268</v>
@@ -9525,19 +9525,19 @@
         <v>160</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N211" s="3"/>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>269</v>
@@ -9555,19 +9555,19 @@
         <v>160</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N212" s="3"/>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>271</v>
@@ -9587,19 +9587,19 @@
         <v>621</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N213" s="3"/>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>272</v>
@@ -9621,19 +9621,19 @@
         <v>5284</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N214" s="3"/>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>36</v>
@@ -9655,19 +9655,19 @@
         <v>2940</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N215" s="3"/>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>273</v>
@@ -9687,19 +9687,19 @@
         <v>4869</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N216" s="3"/>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>274</v>
@@ -9717,19 +9717,19 @@
         <v>160</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N217" s="3"/>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>276</v>
@@ -9747,19 +9747,19 @@
         <v>160</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N218" s="3"/>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>217</v>
@@ -9779,19 +9779,19 @@
         <v>1227</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N219" s="3"/>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>277</v>
@@ -9809,19 +9809,19 @@
         <v>1600</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N220" s="3"/>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>278</v>
@@ -9843,19 +9843,19 @@
         <v>11102</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N221" s="3"/>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>76</v>
@@ -9877,19 +9877,19 @@
         <v>3726</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N222" s="3"/>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>279</v>
@@ -9909,19 +9909,19 @@
         <v>1792</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N223" s="3"/>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>91</v>
@@ -9943,19 +9943,19 @@
         <v>1770</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N224" s="3"/>
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>280</v>
@@ -9975,19 +9975,19 @@
         <v>1635</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N225" s="3"/>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>282</v>
@@ -10007,19 +10007,19 @@
         <v>1918</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N226" s="3"/>
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>36</v>
@@ -10039,19 +10039,19 @@
         <v>946</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N227" s="3"/>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>240</v>
@@ -10071,7 +10071,7 @@
         <v>1268</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N228" s="3"/>
     </row>
@@ -10083,7 +10083,7 @@
         <v>284</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>285</v>
@@ -10101,7 +10101,7 @@
         <v>3000</v>
       </c>
       <c r="M229" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N229" s="3"/>
     </row>
@@ -10113,7 +10113,7 @@
         <v>23</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>287</v>
@@ -10131,7 +10131,7 @@
         <v>200</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N230" s="3"/>
     </row>
@@ -10143,7 +10143,7 @@
         <v>289</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>290</v>
@@ -10161,7 +10161,7 @@
         <v>1000</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N231" s="3"/>
     </row>
@@ -10173,7 +10173,7 @@
         <v>33</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>292</v>
@@ -10201,7 +10201,7 @@
         <v>130108</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N232" s="3"/>
     </row>
@@ -10213,7 +10213,7 @@
         <v>130</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>131</v>
@@ -10231,7 +10231,7 @@
         <v>2000</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N233" s="3"/>
     </row>
@@ -10243,7 +10243,7 @@
         <v>87</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>295</v>
@@ -10263,7 +10263,7 @@
         <v>2152</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N234" s="3"/>
     </row>
@@ -10275,7 +10275,7 @@
         <v>39</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>297</v>
@@ -10293,7 +10293,7 @@
         <v>1500</v>
       </c>
       <c r="M235" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N235" s="3"/>
     </row>
@@ -10305,7 +10305,7 @@
         <v>299</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>300</v>
@@ -10323,7 +10323,7 @@
         <v>800</v>
       </c>
       <c r="M236" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N236" s="3"/>
     </row>
@@ -10335,7 +10335,7 @@
         <v>302</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>303</v>
@@ -10353,7 +10353,7 @@
         <v>2500</v>
       </c>
       <c r="M237" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N237" s="3"/>
     </row>
@@ -10365,7 +10365,7 @@
         <v>161</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>305</v>
@@ -10383,7 +10383,7 @@
         <v>1500</v>
       </c>
       <c r="M238" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N238" s="3"/>
     </row>
@@ -10395,7 +10395,7 @@
         <v>85</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>307</v>
@@ -10413,7 +10413,7 @@
         <v>15000</v>
       </c>
       <c r="M239" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N239" s="3"/>
     </row>
@@ -10425,7 +10425,7 @@
         <v>85</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>91</v>
@@ -10443,7 +10443,7 @@
         <v>12000</v>
       </c>
       <c r="M240" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N240" s="3"/>
     </row>
@@ -10455,7 +10455,7 @@
         <v>23</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>310</v>
@@ -10475,7 +10475,7 @@
         <v>9697</v>
       </c>
       <c r="M241" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N241" s="3"/>
     </row>
@@ -10487,7 +10487,7 @@
         <v>43</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>312</v>
@@ -10507,7 +10507,7 @@
         <v>5241</v>
       </c>
       <c r="M242" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N242" s="3"/>
     </row>
@@ -10519,7 +10519,7 @@
         <v>45</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>314</v>
@@ -10537,7 +10537,7 @@
         <v>48917</v>
       </c>
       <c r="M243" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N243" s="3"/>
     </row>
@@ -10549,7 +10549,7 @@
         <v>26</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>316</v>
@@ -10567,7 +10567,7 @@
         <v>1697</v>
       </c>
       <c r="M244" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N244" s="3"/>
     </row>
@@ -10579,7 +10579,7 @@
         <v>318</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>319</v>
@@ -10597,7 +10597,7 @@
         <v>5000</v>
       </c>
       <c r="M245" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N245" s="3"/>
     </row>
@@ -10609,7 +10609,7 @@
         <v>45</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>321</v>
@@ -10627,7 +10627,7 @@
         <v>3000</v>
       </c>
       <c r="M246" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N246" s="3"/>
     </row>
@@ -10639,7 +10639,7 @@
         <v>323</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>324</v>
@@ -10657,7 +10657,7 @@
         <v>2500</v>
       </c>
       <c r="M247" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N247" s="3"/>
     </row>
@@ -10669,7 +10669,7 @@
         <v>170</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>326</v>
@@ -10687,7 +10687,7 @@
         <v>400</v>
       </c>
       <c r="M248" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N248" s="3"/>
     </row>
@@ -10699,7 +10699,7 @@
         <v>328</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>329</v>
@@ -10717,7 +10717,7 @@
         <v>750</v>
       </c>
       <c r="M249" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N249" s="3"/>
     </row>
@@ -10729,7 +10729,7 @@
         <v>207</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>331</v>
@@ -10747,7 +10747,7 @@
         <v>2160</v>
       </c>
       <c r="M250" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N250" s="3"/>
     </row>
@@ -10759,7 +10759,7 @@
         <v>97</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>333</v>
@@ -10777,7 +10777,7 @@
         <v>600</v>
       </c>
       <c r="M251" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N251" s="3"/>
     </row>
@@ -10789,7 +10789,7 @@
         <v>335</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>336</v>
@@ -10807,7 +10807,7 @@
         <v>2500</v>
       </c>
       <c r="M252" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N252" s="3"/>
     </row>
@@ -10819,7 +10819,7 @@
         <v>338</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>339</v>
@@ -10837,7 +10837,7 @@
         <v>1500</v>
       </c>
       <c r="M253" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N253" s="3"/>
     </row>
@@ -10849,7 +10849,7 @@
         <v>30</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>341</v>
@@ -10867,7 +10867,7 @@
         <v>2000</v>
       </c>
       <c r="M254" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N254" s="3"/>
     </row>
@@ -10879,7 +10879,7 @@
         <v>183</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>343</v>
@@ -10901,7 +10901,7 @@
         <v>4808</v>
       </c>
       <c r="M255" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N255" s="3"/>
     </row>
@@ -10913,7 +10913,7 @@
         <v>345</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>140</v>
@@ -10937,7 +10937,7 @@
         <v>61604</v>
       </c>
       <c r="M256" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N256" s="3"/>
     </row>
@@ -10949,7 +10949,7 @@
         <v>45</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>347</v>
@@ -10967,7 +10967,7 @@
         <v>3000</v>
       </c>
       <c r="M257" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N257" s="3"/>
     </row>
@@ -10979,7 +10979,7 @@
         <v>85</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>245</v>
@@ -11007,7 +11007,7 @@
         <v>172240</v>
       </c>
       <c r="M258" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N258" s="3"/>
     </row>
@@ -11019,7 +11019,7 @@
         <v>63</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>350</v>
@@ -11043,7 +11043,7 @@
         <v>9889</v>
       </c>
       <c r="M259" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N259" s="3"/>
     </row>
@@ -11055,7 +11055,7 @@
         <v>157</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>352</v>
@@ -11077,7 +11077,7 @@
         <v>12963</v>
       </c>
       <c r="M260" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N260" s="3"/>
     </row>
@@ -11089,7 +11089,7 @@
         <v>43</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>44</v>
@@ -11109,7 +11109,7 @@
         <v>14837</v>
       </c>
       <c r="M261" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N261" s="3"/>
     </row>
@@ -11121,7 +11121,7 @@
         <v>45</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>355</v>
@@ -11139,7 +11139,7 @@
         <v>2000</v>
       </c>
       <c r="M262" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N262" s="3"/>
     </row>
@@ -11151,7 +11151,7 @@
         <v>45</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>119</v>
@@ -11177,7 +11177,7 @@
         <v>80418</v>
       </c>
       <c r="M263" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N263" s="3"/>
     </row>
@@ -11189,7 +11189,7 @@
         <v>358</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>188</v>
@@ -11209,7 +11209,7 @@
         <v>6000</v>
       </c>
       <c r="M264" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N264" s="3"/>
     </row>
@@ -11221,7 +11221,7 @@
         <v>26</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>360</v>
@@ -11239,7 +11239,7 @@
         <v>2000</v>
       </c>
       <c r="M265" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N265" s="3"/>
     </row>
@@ -11251,7 +11251,7 @@
         <v>19</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>362</v>
@@ -11269,7 +11269,7 @@
         <v>500</v>
       </c>
       <c r="M266" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N266" s="3"/>
     </row>
@@ -11281,7 +11281,7 @@
         <v>85</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>364</v>
@@ -11299,7 +11299,7 @@
         <v>1500</v>
       </c>
       <c r="M267" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N267" s="3"/>
     </row>
@@ -11311,7 +11311,7 @@
         <v>45</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>47</v>
@@ -11331,7 +11331,7 @@
         <v>26500</v>
       </c>
       <c r="M268" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N268" s="3"/>
     </row>
@@ -11343,7 +11343,7 @@
         <v>367</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>368</v>
@@ -11361,7 +11361,7 @@
         <v>500</v>
       </c>
       <c r="M269" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N269" s="3"/>
     </row>
@@ -11373,7 +11373,7 @@
         <v>370</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>371</v>
@@ -11391,7 +11391,7 @@
         <v>1000</v>
       </c>
       <c r="M270" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N270" s="3"/>
     </row>
@@ -11403,7 +11403,7 @@
         <v>45</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>373</v>
@@ -11421,7 +11421,7 @@
         <v>3000</v>
       </c>
       <c r="M271" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N271" s="3"/>
     </row>
@@ -11433,7 +11433,7 @@
         <v>101</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>375</v>
@@ -11453,7 +11453,7 @@
         <v>8733</v>
       </c>
       <c r="M272" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N272" s="3"/>
     </row>
@@ -11465,7 +11465,7 @@
         <v>101</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>375</v>
@@ -11483,7 +11483,7 @@
         <v>28000</v>
       </c>
       <c r="M273" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N273" s="3"/>
     </row>
@@ -11495,7 +11495,7 @@
         <v>101</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>375</v>
@@ -11515,7 +11515,7 @@
         <v>114000</v>
       </c>
       <c r="M274" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N274" s="3"/>
     </row>
@@ -11527,7 +11527,7 @@
         <v>379</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>380</v>
@@ -11545,7 +11545,7 @@
         <v>1000</v>
       </c>
       <c r="M275" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N275" s="3"/>
     </row>
@@ -11557,7 +11557,7 @@
         <v>101</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>375</v>
@@ -11575,7 +11575,7 @@
         <v>3000</v>
       </c>
       <c r="M276" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N276" s="3"/>
     </row>
@@ -11587,7 +11587,7 @@
         <v>45</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>119</v>
@@ -11605,7 +11605,7 @@
         <v>9000</v>
       </c>
       <c r="M277" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N277" s="3"/>
     </row>
@@ -11617,7 +11617,7 @@
         <v>384</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>385</v>
@@ -11637,7 +11637,7 @@
         <v>16500</v>
       </c>
       <c r="M278" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N278" s="3"/>
     </row>
@@ -11649,7 +11649,7 @@
         <v>387</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>388</v>
@@ -11667,7 +11667,7 @@
         <v>1700</v>
       </c>
       <c r="M279" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N279" s="3"/>
     </row>
@@ -11679,7 +11679,7 @@
         <v>200</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>390</v>
@@ -11697,7 +11697,7 @@
         <v>1000</v>
       </c>
       <c r="M280" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N280" s="3"/>
     </row>
@@ -11709,7 +11709,7 @@
         <v>392</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>393</v>
@@ -11727,7 +11727,7 @@
         <v>1000</v>
       </c>
       <c r="M281" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N281" s="3"/>
     </row>
@@ -11739,7 +11739,7 @@
         <v>395</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>396</v>
@@ -11757,7 +11757,7 @@
         <v>1000</v>
       </c>
       <c r="M282" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N282" s="3"/>
     </row>
@@ -11769,7 +11769,7 @@
         <v>398</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>399</v>
@@ -11787,19 +11787,19 @@
         <v>6000</v>
       </c>
       <c r="M283" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N283" s="3"/>
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C284" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>140</v>
@@ -11817,22 +11817,22 @@
         <v>1000</v>
       </c>
       <c r="M284" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N284" s="3"/>
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -11847,22 +11847,22 @@
         <v>1000</v>
       </c>
       <c r="M285" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N285" s="3"/>
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -11877,22 +11877,22 @@
         <v>1600</v>
       </c>
       <c r="M286" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N286" s="3"/>
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -11907,22 +11907,22 @@
         <v>2315</v>
       </c>
       <c r="M287" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N287" s="3"/>
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="C288" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D288" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D288" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -11937,19 +11937,19 @@
         <v>1000</v>
       </c>
       <c r="M288" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N288" s="3"/>
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>144</v>
@@ -11967,19 +11967,19 @@
         <v>1852</v>
       </c>
       <c r="M289" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N289" s="3"/>
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>126</v>
@@ -11997,19 +11997,19 @@
         <v>5000</v>
       </c>
       <c r="M290" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N290" s="3"/>
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>36</v>
@@ -12027,22 +12027,22 @@
         <v>30000</v>
       </c>
       <c r="M291" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N291" s="3"/>
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
@@ -12063,19 +12063,19 @@
         <v>22841</v>
       </c>
       <c r="M292" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N292" s="3"/>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>144</v>
@@ -12095,22 +12095,22 @@
         <v>9000</v>
       </c>
       <c r="M293" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N293" s="3"/>
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E294" s="2"/>
       <c r="F294" s="4">
@@ -12127,22 +12127,22 @@
         <v>31500</v>
       </c>
       <c r="M294" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N294" s="3"/>
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
@@ -12157,7 +12157,7 @@
         <v>2000</v>
       </c>
       <c r="M295" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N295" s="3"/>
     </row>
@@ -12177,7 +12177,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -12211,13 +12211,13 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" s="2">
         <v>2016</v>
       </c>
       <c r="C2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>6</v>
@@ -12234,13 +12234,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B3" s="2">
         <v>2016</v>
       </c>
       <c r="C3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>7</v>
@@ -12257,13 +12257,13 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B4" s="2">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
@@ -12280,13 +12280,13 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B5" s="2">
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>9</v>
@@ -12303,13 +12303,13 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B6" s="2">
         <v>2016</v>
       </c>
       <c r="C6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
@@ -12326,13 +12326,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B7" s="2">
         <v>2016</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
@@ -12349,13 +12349,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B8" s="2">
         <v>2016</v>
       </c>
       <c r="C8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>6</v>
@@ -12372,13 +12372,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B9" s="2">
         <v>2016</v>
       </c>
       <c r="C9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -12395,13 +12395,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B10" s="2">
         <v>2016</v>
       </c>
       <c r="C10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -12418,13 +12418,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B11" s="2">
         <v>2016</v>
       </c>
       <c r="C11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
